--- a/Config/SSO.xlsx
+++ b/Config/SSO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouisVincentGalvez\MeralcoOnlinePortal\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4112BA0-4C23-459C-B87D-C8A1E70D25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1CA6A-06B5-4015-9922-D437E4EA31BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E544E56B-5137-4BEF-824C-37E29E8723E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E544E56B-5137-4BEF-824C-37E29E8723E4}"/>
   </bookViews>
   <sheets>
     <sheet name="AT - Test Suite" sheetId="5" r:id="rId1"/>
@@ -1016,6 +1016,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1023,18 +1035,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2304,8 +2304,8 @@
   </sheetPr>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3651,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A009D915-6C12-4050-90F7-83F7DCE02B67}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3912,14 +3912,14 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
@@ -3954,14 +3954,14 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
@@ -3996,14 +3996,14 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -4022,14 +4022,14 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
@@ -4048,14 +4048,14 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
@@ -4074,14 +4074,14 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
@@ -4100,14 +4100,14 @@
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
@@ -4126,14 +4126,14 @@
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
@@ -4152,14 +4152,14 @@
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -4179,12 +4179,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A25:F25"/>
@@ -4192,6 +4186,12 @@
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4790,18 +4790,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4824,18 +4824,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4000A3CA-88F2-4739-B763-76748DB18036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2585DB6-C699-4C2E-B17B-B2952AEF821E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4000A3CA-88F2-4739-B763-76748DB18036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/SSO.xlsx
+++ b/Config/SSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouisVincentGalvez\MeralcoOnlinePortal\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1CA6A-06B5-4015-9922-D437E4EA31BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554A75A8-BFC1-4DCE-8CCF-8328B9E801A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E544E56B-5137-4BEF-824C-37E29E8723E4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="204">
   <si>
     <t>Description</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>Step Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1 </t>
   </si>
   <si>
     <t>Click Forgot Password? In login page</t>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="7" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>12</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>14</v>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="11" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>17</v>
@@ -2488,7 +2485,7 @@
     </row>
     <row r="14" spans="1:11" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>21</v>
@@ -2515,7 +2512,7 @@
     </row>
     <row r="16" spans="1:11" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>25</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="18" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>27</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="20" spans="1:7" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>30</v>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="22" spans="1:7" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>33</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="24" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>34</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>37</v>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>38</v>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>40</v>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>41</v>
@@ -2786,7 +2783,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>43</v>
@@ -2813,7 +2810,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>44</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>45</v>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="44" spans="1:7" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>47</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="46" spans="1:7" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>48</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="48" spans="1:7" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>49</v>
@@ -2957,7 +2954,7 @@
     </row>
     <row r="50" spans="1:7" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>50</v>
@@ -2994,7 +2991,7 @@
     </row>
     <row r="53" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>52</v>
@@ -3042,7 +3039,7 @@
     </row>
     <row r="57" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>58</v>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="59" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>61</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="61" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>62</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="63" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>63</v>
@@ -3159,7 +3156,7 @@
     </row>
     <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>65</v>
@@ -3186,7 +3183,7 @@
     </row>
     <row r="68" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>68</v>
@@ -3652,7 +3649,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3701,16 +3698,16 @@
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -3720,13 +3717,13 @@
     </row>
     <row r="4" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -3749,32 +3746,32 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -3791,45 +3788,45 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -3839,16 +3836,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -3865,29 +3862,29 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
@@ -3897,16 +3894,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -3923,32 +3920,32 @@
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -3965,32 +3962,32 @@
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -4007,16 +4004,16 @@
     </row>
     <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -4033,16 +4030,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -4059,16 +4056,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>100</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>101</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -4085,13 +4082,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>18</v>
@@ -4111,13 +4108,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>66</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -4137,13 +4134,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>66</v>
@@ -4163,13 +4160,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>66</v>
@@ -4219,38 +4216,38 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="7"/>
       <c r="F2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>1</v>
@@ -4258,22 +4255,22 @@
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="F3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>1</v>
@@ -4281,22 +4278,22 @@
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="12"/>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>1</v>
@@ -4304,227 +4301,227 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
         <v>124</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>125</v>
-      </c>
-      <c r="J15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
         <v>127</v>
-      </c>
-      <c r="J16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
         <v>127</v>
-      </c>
-      <c r="J17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
         <v>129</v>
-      </c>
-      <c r="H20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
         <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" t="s">
         <v>134</v>
-      </c>
-      <c r="H22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
         <v>136</v>
-      </c>
-      <c r="H23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G24" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s">
         <v>138</v>
-      </c>
-      <c r="H24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="H25" t="s">
         <v>141</v>
-      </c>
-      <c r="H25" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
         <v>143</v>
-      </c>
-      <c r="H26" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
         <v>145</v>
-      </c>
-      <c r="H27" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" t="s">
         <v>147</v>
-      </c>
-      <c r="H28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" t="s">
         <v>149</v>
-      </c>
-      <c r="H29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
         <v>151</v>
-      </c>
-      <c r="H30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
         <v>153</v>
-      </c>
-      <c r="H31" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>156</v>
-      </c>
-      <c r="D33" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" t="s">
         <v>160</v>
       </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
       <c r="D35" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4567,6 +4564,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -4789,22 +4795,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4000A3CA-88F2-4739-B763-76748DB18036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA7F4F-9C44-4290-A743-5794FE4C8CA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4823,19 +4828,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2585DB6-C699-4C2E-B17B-B2952AEF821E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4000A3CA-88F2-4739-B763-76748DB18036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>